--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Acta & Presupuesto.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Acta & Presupuesto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Documents\GitHub\Capstone-MusicPro\Fase 2\Evidencias Proyecto\Evidencias de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60927C4A-A303-4F97-BB59-4695FDD6E726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0D6B72-4E26-4916-ABCE-4E88D51F5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acta" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Acta!$B$2:$C$16</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -247,10 +247,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -416,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -493,6 +493,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -501,7 +547,7 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -536,155 +582,195 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1035,8 +1121,8 @@
   </sheetPr>
   <dimension ref="B1:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1332,7 +1418,7 @@
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="46" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="3"/>
@@ -2013,7 +2099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3E3FC3-84E3-45CB-B4A3-A52231979BD4}">
   <dimension ref="B1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2032,598 +2120,598 @@
     <row r="1" spans="2:8" s="13" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="G4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>45516</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="21"/>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20"/>
+      <c r="G5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>45649</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="H6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33" t="str">
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29" t="str">
         <f>IF(AND(F9&lt;&gt;"",G9&lt;&gt;""),F9*G9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="30">
         <v>1</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="31">
         <v>1200000</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="32">
         <f t="shared" ref="H10:H34" si="0">IF(AND(F10&lt;&gt;"",G10&lt;&gt;""),F10*G10,"")</f>
         <v>1200000</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35">
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="30">
         <v>1</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="31">
         <v>1200000</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="32">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35">
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>1300000</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="32">
         <f t="shared" si="0"/>
         <v>1300000</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="33" t="str">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="29" t="str">
         <f>IF(AND(F13&lt;&gt;"",G13&lt;&gt;""),F13*G13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="30">
         <v>1</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="31">
         <v>80000</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="32">
         <f>IF(AND(F14&lt;&gt;"",G14&lt;&gt;""),F14*G14,"")</f>
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="30">
         <v>1</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="31">
         <v>40000</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="32">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="30">
         <v>1</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="31">
         <v>35000</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="32">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
+    <row r="17" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="33" t="str">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="30">
         <v>1</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="31">
         <v>35000</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="32">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="30">
         <v>1</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="35">
         <v>25000</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="32">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="33" t="str">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="30">
         <v>1</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="37" t="str">
+      <c r="G21" s="35"/>
+      <c r="H21" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="30">
         <v>1</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="31">
         <v>35000</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="32">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="33" t="str">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+    <row r="24" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42">
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="36">
         <v>1</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="37" t="str">
+      <c r="G24" s="35"/>
+      <c r="H24" s="32" t="str">
         <f>IF(AND(F24&lt;&gt;"",G24&lt;&gt;""),F24*G24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="41" t="s">
+    <row r="25" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="36">
         <v>1</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="31">
         <v>50000</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="32">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="33" t="str">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="31">
         <v>1200000</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="32">
         <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="31">
         <v>25000</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="32">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+    <row r="29" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="33" t="str">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
+    <row r="30" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="36">
         <v>1</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="31">
         <v>4000</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="32">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+    <row r="31" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="33" t="str">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+    <row r="32" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="30">
         <v>3</v>
       </c>
-      <c r="G32" s="43">
+      <c r="G32" s="37">
         <v>10000</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="32">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="44" t="s">
+    <row r="33" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="35">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="30">
         <v>1</v>
       </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="37" t="str">
+      <c r="G33" s="38"/>
+      <c r="H33" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27" t="str">
+    <row r="34" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
+    <row r="35" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="47">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="39">
         <f>SUM(H9:H33)</f>
         <v>5259000</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+    <row r="36" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="48">
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="40">
         <v>0.19</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="41">
         <f>H35*G36</f>
         <v>999210</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
+    <row r="37" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="12">
         <f>H35+H36</f>
         <v>6258210</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="51"/>
-    </row>
-    <row r="39" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="46" t="s">
+    <row r="38" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="42"/>
+    </row>
+    <row r="39" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="39">
         <f>SUM(H32,H30,H28,H25,H22,H16,H15,H14,H12,H11,H10)</f>
         <v>3999000</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+    <row r="40" spans="2:8" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53">
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="43">
         <v>0.19</v>
       </c>
-      <c r="H40" s="54">
+      <c r="H40" s="44">
         <f>H39*G40</f>
         <v>759810</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="39" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="55" t="s">
+    <row r="41" spans="2:8" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="45">
         <f>H39+H40</f>
         <v>4758810</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -2632,7 +2720,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="2:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -2641,7 +2729,7 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
     </row>
-    <row r="44" spans="2:8" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2650,7 +2738,7 @@
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
     </row>
-    <row r="45" spans="2:8" s="39" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" s="34" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -2661,11 +2749,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
@@ -2673,30 +2780,11 @@
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
